--- a/biology/Zoologie/Ganga_couronné/Ganga_couronné.xlsx
+++ b/biology/Zoologie/Ganga_couronné/Ganga_couronné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ganga_couronn%C3%A9</t>
+          <t>Ganga_couronné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocles coronatus
 Le Ganga couronné (Pterocles coronatus) est une espèce d'oiseaux de la famille des Pteroclidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ganga_couronn%C3%A9</t>
+          <t>Ganga_couronné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit depuis l'Ouest de l'Afrique jusqu'au Pakistan.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ganga_couronn%C3%A9</t>
+          <t>Ganga_couronné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.11, 2012)[1] et Alan P. Peterson il existe cinq sous-espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.11, 2012) et Alan P. Peterson il existe cinq sous-espèces :
 P. c. coronatus Lichtenstein, 1823 — Ouest et centre du Sahara jusqu'à l'Est de l'Égypte et le Nord du Soudan ;
 P. c. vastitas Meinertzhagen, 1928 — péninsule du Sinaï dans le Nord-Est de l'Égypte jusqu'en Israël et en Jordanie ;
 P. c. saturatus Kinnear, 1927 — nord d'Oman ;
